--- a/MitchIDPs.xlsx
+++ b/MitchIDPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekshafei/Desktop/Louisville/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B4171-9E48-0544-8C55-7AAD65C4EEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AA2614-A08E-3C43-BB36-DB41D79C91A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MitchIDPs.xlsx
+++ b/MitchIDPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekshafei/Desktop/Louisville/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AA2614-A08E-3C43-BB36-DB41D79C91A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D17ED9-600B-EB49-8E0F-4A0E384453C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -914,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDF36B4-BB4B-3445-9ECF-B904824FD3AA}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
